--- a/AAII_Financials/Quarterly/PHIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>PHIN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +712,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E8" s="3">
         <v>887000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>835000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3348000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>842000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E9" s="3">
         <v>698000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>663000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2627000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>668000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,26 +776,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E10" s="3">
         <v>189000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>172000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>721000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>174000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,26 +824,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>29000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>104000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,26 +886,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>43000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>42000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E17" s="3">
         <v>831000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>777000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3030000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>771000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E18" s="3">
         <v>56000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>318000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,26 +1041,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>57000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E21" s="3">
         <v>117000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>545000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,26 +1103,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E22" s="3">
         <v>18000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E23" s="3">
         <v>56000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>347000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>78000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,26 +1167,29 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>85000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="E26" s="3">
         <v>35000</v>
       </c>
       <c r="F26" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G26" s="3">
         <v>262000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>57000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="E27" s="3">
         <v>35000</v>
       </c>
       <c r="F27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G27" s="3">
         <v>262000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>57000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,26 +1423,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-57000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="E33" s="3">
         <v>35000</v>
       </c>
       <c r="F33" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G33" s="3">
         <v>262000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>57000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="E35" s="3">
         <v>35000</v>
       </c>
       <c r="F35" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G35" s="3">
         <v>262000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>57000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1618,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E41" s="3">
         <v>217000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>185000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,20 +1680,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>64000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>230000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,20 +1712,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E44" s="3">
         <v>518000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>493000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,20 +1744,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E45" s="3">
         <v>44000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2124000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1670000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1736000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,20 +1808,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E47" s="3">
         <v>138000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>364000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,20 +1840,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>953000</v>
+      </c>
+      <c r="E48" s="3">
         <v>968000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>988000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,20 +1872,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>897000</v>
+      </c>
+      <c r="E49" s="3">
         <v>911000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>919000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E52" s="3">
         <v>182000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>189000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4191000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3869000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4196000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2094,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E57" s="3">
         <v>577000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>676000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,20 +2124,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>120000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,19 +2156,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>370000</v>
+        <v>417000</v>
       </c>
       <c r="E59" s="3">
         <v>370000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>370000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1321000</v>
+      </c>
+      <c r="E60" s="3">
         <v>947000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1166000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,20 +2220,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E61" s="3">
         <v>659000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>948000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E62" s="3">
         <v>271000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>290000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2299000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1877000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2404000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1892000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1992000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1792000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>35000</v>
+        <v>11000</v>
       </c>
       <c r="E81" s="3">
         <v>35000</v>
       </c>
       <c r="F81" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G81" s="3">
         <v>262000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>57000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,26 +2831,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E83" s="3">
         <v>43000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>170000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,26 +3021,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E89" s="3">
         <v>66000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>303000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,23 +3069,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,26 +3163,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-105000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,26 +3337,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-185000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,26 +3369,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,26 +3401,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E102" s="3">
         <v>32000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-70000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-66000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
